--- a/table_for_params.xlsx
+++ b/table_for_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timofey.inozemtsev\PycharmProjects\VMULogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216007E-6CA9-41EF-AB39-6816CD484B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009105A3-ECCC-4345-BBAE-E80B06738949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3230" yWindow="2670" windowWidth="15970" windowHeight="7530" xr2:uid="{A4B5CDDA-6D92-4066-8E68-82BE124DC49C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4B5CDDA-6D92-4066-8E68-82BE124DC49C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>address</t>
   </si>
@@ -102,9 +102,6 @@
     <t>мощность двигателя</t>
   </si>
   <si>
-    <t>момент двигателя</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>0x5b1110</t>
   </si>
   <si>
-    <t>0x5b111f</t>
-  </si>
-  <si>
     <t>0x5b110c</t>
   </si>
   <si>
@@ -181,6 +175,27 @@
   </si>
   <si>
     <t>0x520109</t>
+  </si>
+  <si>
+    <t>заданный момент двигателя</t>
+  </si>
+  <si>
+    <t>реализованный момент двигателя</t>
+  </si>
+  <si>
+    <t>0x5b110b</t>
+  </si>
+  <si>
+    <t>0x5b110f</t>
+  </si>
+  <si>
+    <t>838860.8</t>
+  </si>
+  <si>
+    <t>478494.5454</t>
+  </si>
+  <si>
+    <t>scaleB</t>
   </si>
 </sst>
 </file>
@@ -548,240 +563,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F8E5B6-D8B2-45EE-AA18-93EEC942666A}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>65535</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>65535</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>65535</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>65535</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>31068</v>
+      </c>
+      <c r="F21" t="s">
         <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/table_for_params.xlsx
+++ b/table_for_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timofey.inozemtsev\PycharmProjects\VMULogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009105A3-ECCC-4345-BBAE-E80B06738949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCBFCB3-54EE-442E-B920-1803FF3B9C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4B5CDDA-6D92-4066-8E68-82BE124DC49C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>address</t>
   </si>
@@ -196,6 +196,27 @@
   </si>
   <si>
     <t>scaleB</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>scale_value="90" scale_format="29856"</t>
+  </si>
+  <si>
+    <t>scale_value="100" scale_format="4128"</t>
+  </si>
+  <si>
+    <t>scale_value="650" scale_format="1056"</t>
+  </si>
+  <si>
+    <t>scale_value="35" scale_format="1088"</t>
+  </si>
+  <si>
+    <t>scale_value="540" scale_format="2112"</t>
+  </si>
+  <si>
+    <t>scale_value="200" scale_format="1056"</t>
   </si>
 </sst>
 </file>
@@ -246,9 +267,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -563,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F8E5B6-D8B2-45EE-AA18-93EEC942666A}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,9 +602,10 @@
     <col min="5" max="5" width="8.7265625" customWidth="1"/>
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -603,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -616,8 +641,11 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -630,8 +658,11 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -644,8 +675,11 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -658,8 +692,11 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -669,8 +706,11 @@
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -680,8 +720,14 @@
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" s="2">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -691,8 +737,14 @@
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" s="2">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -702,8 +754,14 @@
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" s="2">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -713,8 +771,14 @@
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" s="2">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -724,8 +788,14 @@
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" s="2">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -738,8 +808,11 @@
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -752,8 +825,11 @@
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -766,8 +842,14 @@
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" s="2">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -777,8 +859,14 @@
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" s="2">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -788,8 +876,14 @@
       <c r="F16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H16" s="2">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -799,8 +893,14 @@
       <c r="F17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H17" s="2">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -810,8 +910,11 @@
       <c r="F18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H18" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -821,8 +924,11 @@
       <c r="E19">
         <v>65535</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -832,8 +938,11 @@
       <c r="E20">
         <v>65535</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -845,6 +954,12 @@
       </c>
       <c r="F21" t="s">
         <v>26</v>
+      </c>
+      <c r="H21" s="2">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/table_for_params.xlsx
+++ b/table_for_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timofey.inozemtsev\PycharmProjects\VMULogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCBFCB3-54EE-442E-B920-1803FF3B9C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1157B9B-A3BB-4DFB-84D4-A8A367EE6DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4B5CDDA-6D92-4066-8E68-82BE124DC49C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>address</t>
   </si>
@@ -189,9 +189,6 @@
     <t>0x5b110f</t>
   </si>
   <si>
-    <t>838860.8</t>
-  </si>
-  <si>
     <t>478494.5454</t>
   </si>
   <si>
@@ -201,22 +198,13 @@
     <t>4b</t>
   </si>
   <si>
-    <t>scale_value="90" scale_format="29856"</t>
-  </si>
-  <si>
-    <t>scale_value="100" scale_format="4128"</t>
-  </si>
-  <si>
-    <t>scale_value="650" scale_format="1056"</t>
-  </si>
-  <si>
-    <t>scale_value="35" scale_format="1088"</t>
-  </si>
-  <si>
-    <t>scale_value="540" scale_format="2112"</t>
-  </si>
-  <si>
-    <t>scale_value="200" scale_format="1056"</t>
+    <t>scale_value</t>
+  </si>
+  <si>
+    <t>scale_format</t>
+  </si>
+  <si>
+    <t>4260364288.0</t>
   </si>
 </sst>
 </file>
@@ -587,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F8E5B6-D8B2-45EE-AA18-93EEC942666A}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,7 +593,7 @@
     <col min="8" max="8" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -619,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -627,342 +615,598 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="K2" t="str">
+        <f>DEC2HEX(J2)</f>
+        <v>5A</v>
+      </c>
+      <c r="L2">
+        <v>29856</v>
+      </c>
+      <c r="M2" t="str">
+        <f>DEC2HEX(L2)</f>
+        <v>74A0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <v>90</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K21" si="0">DEC2HEX(J3)</f>
+        <v>5A</v>
+      </c>
+      <c r="L3">
+        <v>29856</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M21" si="1">DEC2HEX(L3)</f>
+        <v>74A0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>90</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>5A</v>
+      </c>
+      <c r="L4">
+        <v>29856</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>74A0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>90</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>5A</v>
+      </c>
+      <c r="L5">
+        <v>29856</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>74A0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="L6">
+        <v>4128</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="L7">
+        <v>4128</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>650</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>28A</v>
+      </c>
+      <c r="L8">
+        <v>1056</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>35</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>1088</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="H10" s="2">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>12320</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>3020</v>
+      </c>
+      <c r="N10">
+        <v>-41.3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4">
-        <v>65535</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5">
-        <v>65535</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="H11" s="2">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>12320</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="H12" s="2">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <v>8000</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>1F40</v>
+      </c>
+      <c r="L12">
+        <v>13344</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2">
+        <v>43</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>96</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>37</v>
-      </c>
-      <c r="E12">
-        <v>65535</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13">
-        <v>65535</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2">
-        <v>43</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="2">
-        <v>43</v>
-      </c>
-      <c r="J15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="2">
-        <v>43</v>
-      </c>
-      <c r="J16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="2">
-        <v>43</v>
-      </c>
-      <c r="J17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>65535</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20">
-        <v>65535</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="2">
+        <v>43</v>
+      </c>
+      <c r="J20">
+        <v>540</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>21C</v>
+      </c>
+      <c r="L20">
+        <v>2112</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>840</v>
+      </c>
+      <c r="N20">
+        <v>355.2</v>
+      </c>
+      <c r="P20">
+        <v>31068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21">
-        <v>31068</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H21" s="2">
         <v>43</v>
       </c>
-      <c r="J21" t="s">
-        <v>59</v>
+      <c r="J21">
+        <v>200</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>C8</v>
+      </c>
+      <c r="L21">
+        <v>1056</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
+    <sortCondition ref="B2:B21"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/table_for_params.xlsx
+++ b/table_for_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timofey.inozemtsev\PycharmProjects\VMULogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1157B9B-A3BB-4DFB-84D4-A8A367EE6DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C1A70-1706-4637-9191-06451E8AF818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4B5CDDA-6D92-4066-8E68-82BE124DC49C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>address</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>4260364288.0</t>
+  </si>
+  <si>
+    <t>36700160.0</t>
+  </si>
+  <si>
+    <t>29360128.0</t>
   </si>
 </sst>
 </file>
@@ -575,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F8E5B6-D8B2-45EE-AA18-93EEC942666A}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,7 +599,7 @@
     <col min="8" max="8" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -622,7 +628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -650,7 +656,7 @@
         <v>74A0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -678,7 +684,7 @@
         <v>74A0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -706,7 +712,7 @@
         <v>74A0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -734,7 +740,7 @@
         <v>74A0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -762,7 +768,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -790,7 +796,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -818,7 +824,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -849,7 +855,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -882,8 +888,14 @@
       <c r="O10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R10">
+        <v>43.8</v>
+      </c>
+      <c r="S10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -910,8 +922,14 @@
         <f t="shared" si="1"/>
         <v>3020</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11">
+        <v>35</v>
+      </c>
+      <c r="S11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -939,7 +957,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -967,7 +985,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -992,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1023,7 +1041,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>

--- a/table_for_params.xlsx
+++ b/table_for_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timofey.inozemtsev\PycharmProjects\VMULogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C1A70-1706-4637-9191-06451E8AF818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC19DE2B-A36D-4795-B743-9D06498D83D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4B5CDDA-6D92-4066-8E68-82BE124DC49C}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,6 +747,9 @@
       <c r="B6" t="s">
         <v>49</v>
       </c>
+      <c r="D6">
+        <v>16777216</v>
+      </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
